--- a/biology/Virologie/Solidarité_enfants_sida/Solidarité_enfants_sida.xlsx
+++ b/biology/Virologie/Solidarité_enfants_sida/Solidarité_enfants_sida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solidarit%C3%A9_enfants_sida</t>
+          <t>Solidarité_enfants_sida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solidarité enfants sida (Sol en si) est une association française créée en 1990 qui a pour but de soutenir les enfants atteints par le virus du sida, ainsi que leurs familles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Solidarit%C3%A9_enfants_sida</t>
+          <t>Solidarité_enfants_sida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sol En Si est une association reconnue d'utilité publique, créée en 1990 par Myriam Mercy et Alain Danand, qui soutient et accompagne les enfants et leurs familles concernés par le VIH/SIDA. Son approche ne se limite pas à aider les personnes touchées par le virus mais prend en compte l'intégralité de la cellule familiale.
 Sol En Si dispose d'une équipe d'environ 30 salariés et de 200 volontaires et gère deux centres d'accueil à Bobigny et Marseille. Son action prend la forme d'un accompagnement personnalisé d'enfants et de familles concernées par le VIH par des volontaires et des professionnels.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Solidarit%C3%A9_enfants_sida</t>
+          <t>Solidarité_enfants_sida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,50 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association perçoit environ 60 % de fonds publics et de 40 % de fonds privés. Elle bénéficie du soutien de nombreux donateurs privés qui contribue constamment au financement et au renforcement de ses actions.
 L’association est membre du Comité de la Charte, ce qui garantit la transparence de l'utilisation des dons.
-« Sol En Si » bénéficie également du soutien d'artistes comme Zazie ou Vincent Baguian, parrain et marraine de cœur de l'association, et tire une partie de ses revenus des concerts organisés au profit de Sol En Si et de la vente de CD[1].
-Albums
-1993 : premier CD (live) avec Francis Cabrel, Michel Jonasz, Catherine Lara, Maxime Le Forestier, Maurane et Alain Souchon
+« Sol En Si » bénéficie également du soutien d'artistes comme Zazie ou Vincent Baguian, parrain et marraine de cœur de l'association, et tire une partie de ses revenus des concerts organisés au profit de Sol En Si et de la vente de CD.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solidarité_enfants_sida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solidarit%C3%A9_enfants_sida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Financement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1993 : premier CD (live) avec Francis Cabrel, Michel Jonasz, Catherine Lara, Maxime Le Forestier, Maurane et Alain Souchon
 1995 : deuxième CD enregistré en studio avec les mêmes artistes ainsi que Alain Chamfort, Zazie, CharlÉlie Couture, Dee Dee Bridgewater, China Moses, Elton John, Jacques Higelin, Eddy Louiss, Joe Cocker, Khaled, Les Cherche Midi, Laurent Voulzy, Liane Foly, Michel Fugain, Trio Esperança, Véronique Sanson, Christopher Stills, Youssou N’Dour et Alliance Ethnik
 1997 : troisième CD (live) ainsi que la vidéo du concert
 1999 : quatrième CD enregistré en studio et intitulé Chacun peut y mettre un peu du sien
